--- a/Experimental-data.xlsx
+++ b/Experimental-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tygo\Desktop\Nanobiology\Y5\stage\Zebrafish paper\Experimental data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3653E2A-F88A-4B6F-A942-E317B191EF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82470F6A-D9EC-4727-8590-4F78EBD0D452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{3A395B2E-B365-4F5D-B021-6188C66DA8B6}"/>
   </bookViews>
@@ -154,7 +154,7 @@
     <t>D = 0.8 mm &amp; flowspeed = 0.53 m/s</t>
   </si>
   <si>
-    <t>3 times stdev</t>
+    <t>stdev</t>
   </si>
 </sst>
 </file>
@@ -2557,10 +2557,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>25.652481507872078</c:v>
+                    <c:v>8.5508271692906934</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>10.402382511971243</c:v>
+                    <c:v>3.4674608373237477</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2572,17 +2572,17 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>25.652481507872078</c:v>
+                    <c:v>8.5508271692906934</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>10.402382511971243</c:v>
+                    <c:v>3.4674608373237477</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
             <c:spPr>
               <a:noFill/>
-              <a:ln w="22225" cap="flat" cmpd="sng" algn="ctr">
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="95000"/>
@@ -6065,8 +6065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F34C57A-D8A9-44B2-9881-5D45EB836B07}">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="I69" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="P65" sqref="P65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7686,8 +7686,8 @@
         <v>0.83703703703703702</v>
       </c>
       <c r="G63">
-        <f>3*STDEV(F52:F54)*E63</f>
-        <v>25.652481507872078</v>
+        <f>STDEV(F52:F54)*E63</f>
+        <v>8.5508271692906934</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -7710,8 +7710,8 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="G64">
-        <f>3*STDEV(F56:F58)*E64</f>
-        <v>10.402382511971243</v>
+        <f>STDEV(F56:F58)*E64</f>
+        <v>3.4674608373237477</v>
       </c>
     </row>
   </sheetData>

--- a/Experimental-data.xlsx
+++ b/Experimental-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tygo\Desktop\Nanobiology\Y5\stage\Zebrafish paper\Experimental data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82470F6A-D9EC-4727-8590-4F78EBD0D452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F8CF7B-B16B-4B67-9EAA-3DBE9E038317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{3A395B2E-B365-4F5D-B021-6188C66DA8B6}"/>
   </bookViews>
@@ -35,15 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="43">
   <si>
     <t>.7 mm</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>Failure</t>
   </si>
   <si>
     <t>.8 mm</t>
@@ -154,7 +148,22 @@
     <t>D = 0.8 mm &amp; flowspeed = 0.53 m/s</t>
   </si>
   <si>
-    <t>stdev</t>
+    <t>standard error of the mean</t>
+  </si>
+  <si>
+    <t>Healthy</t>
+  </si>
+  <si>
+    <t>Disfigured</t>
+  </si>
+  <si>
+    <t>Frac sur = Healthy/Total eggs</t>
+  </si>
+  <si>
+    <t>L_bound = lower bound for a 95% confidence interval</t>
+  </si>
+  <si>
+    <t>U_bound = upper bound for a 95% confidence interval</t>
   </si>
 </sst>
 </file>
@@ -308,7 +317,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Success</c:v>
+                  <c:v>Healthy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -436,7 +445,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Failure</c:v>
+                  <c:v>Disfigured</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -856,7 +865,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Success</c:v>
+                  <c:v>Healthy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -984,7 +993,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Failure</c:v>
+                  <c:v>Disfigured</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1404,7 +1413,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Success</c:v>
+                  <c:v>Healthy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1538,7 +1547,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Failure</c:v>
+                  <c:v>Disfigured</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1964,7 +1973,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Success</c:v>
+                  <c:v>Healthy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2081,7 +2090,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Failure</c:v>
+                  <c:v>Disfigured</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2455,14 +2464,19 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB" sz="1200"/>
-              <a:t>Dechorionation</a:t>
+              <a:rPr lang="en-GB" sz="800"/>
+              <a:t>Survival at 5dpf after dechorionation</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB" sz="1200" baseline="0"/>
-              <a:t> with D = 0.8 mm,  flowspeed = 0.53 m/s</a:t>
+              <a:rPr lang="en-GB" sz="800" baseline="0"/>
+              <a:t>Dia = 0.8 mm,  flowspeed = 0.53 m/s</a:t>
             </a:r>
-            <a:endParaRPr lang="en-GB" sz="1200"/>
+            <a:endParaRPr lang="en-GB" sz="800"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2470,8 +2484,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21784605600336832"/>
-          <c:y val="1.937984496124031E-2"/>
+          <c:x val="0.34462445758458482"/>
+          <c:y val="9.0071805066579864E-3"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2529,7 +2543,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Success</c:v>
+                  <c:v>Healthy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2557,10 +2571,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>8.5508271692906934</c:v>
+                    <c:v>4.9368223679839476</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.4674608373237477</c:v>
+                    <c:v>2.001939447833351</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2572,10 +2586,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>8.5508271692906934</c:v>
+                    <c:v>4.9368223679839476</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.4674608373237477</c:v>
+                    <c:v>2.001939447833351</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2638,7 +2652,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Failure</c:v>
+                  <c:v>Disfigured</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5579,16 +5593,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>151113</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2672</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>178921</xdr:rowOff>
+      <xdr:rowOff>169025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>212073</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>19792</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>19792</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5615,16 +5629,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>335281</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>131124</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>8709</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>60961</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>19792</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>29688</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5653,16 +5667,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>189412</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>11283</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>165463</xdr:rowOff>
+      <xdr:rowOff>175360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>250372</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>158338</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5691,16 +5705,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>125516</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>6763</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>20635</xdr:rowOff>
+      <xdr:rowOff>149285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>125087</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>128650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5727,16 +5741,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>277586</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>156753</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>467434</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>78335</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>130629</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>106029</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>128755</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6065,60 +6079,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F34C57A-D8A9-44B2-9881-5D45EB836B07}">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I69" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="P65" sqref="P65"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>31</v>
-      </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6154,7 +6177,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -6190,7 +6213,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -6226,7 +6249,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
         <f>SUM(C4:C6)</f>
@@ -6264,10 +6287,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>11</v>
@@ -6303,7 +6326,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -6339,7 +6362,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1">
         <f>SUM(C8:C10)</f>
@@ -6377,10 +6400,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -6416,7 +6439,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -6452,7 +6475,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -6488,7 +6511,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1">
         <f>SUM(C12:C14)</f>
@@ -6526,52 +6549,52 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
         <v>28</v>
       </c>
-      <c r="G19" t="s">
+      <c r="I19" t="s">
         <v>29</v>
       </c>
-      <c r="H19" t="s">
+      <c r="J19" t="s">
         <v>30</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>31</v>
-      </c>
-      <c r="J19" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -6607,7 +6630,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <v>26</v>
@@ -6643,7 +6666,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C23" s="1">
         <f>SUM(C20:C22)</f>
@@ -6681,10 +6704,10 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C24">
         <v>38</v>
@@ -6720,7 +6743,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C25">
         <v>28</v>
@@ -6756,7 +6779,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C26">
         <v>37</v>
@@ -6792,7 +6815,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C27" s="1">
         <f>SUM(C24:C26)</f>
@@ -6830,10 +6853,10 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C28">
         <v>36</v>
@@ -6869,7 +6892,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C29">
         <v>37</v>
@@ -6905,7 +6928,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C30">
         <v>40</v>
@@ -6941,7 +6964,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C31" s="1">
         <f>SUM(C28:C30)</f>
@@ -6979,52 +7002,52 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="E35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F35" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
         <v>28</v>
       </c>
-      <c r="G35" t="s">
+      <c r="I35" t="s">
         <v>29</v>
       </c>
-      <c r="H35" t="s">
+      <c r="J35" t="s">
         <v>30</v>
       </c>
-      <c r="I35" t="s">
+      <c r="K35" t="s">
         <v>31</v>
-      </c>
-      <c r="J35" t="s">
-        <v>32</v>
-      </c>
-      <c r="K35" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C36">
         <v>29</v>
@@ -7060,7 +7083,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C37">
         <v>31</v>
@@ -7096,7 +7119,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C38">
         <v>29</v>
@@ -7132,7 +7155,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C39" s="1">
         <f>SUM(C36:C38)</f>
@@ -7170,10 +7193,10 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C40">
         <v>36</v>
@@ -7209,7 +7232,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C41">
         <v>41</v>
@@ -7245,7 +7268,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C42">
         <v>43</v>
@@ -7281,7 +7304,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C43" s="1">
         <f>SUM(C40:C42)</f>
@@ -7319,10 +7342,10 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C44">
         <v>39</v>
@@ -7358,7 +7381,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C45">
         <v>40</v>
@@ -7394,7 +7417,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C46">
         <v>42</v>
@@ -7430,7 +7453,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C47" s="1">
         <f>SUM(C44:C46)</f>
@@ -7468,23 +7491,29 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D51" t="s">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="E51" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C52">
         <v>36</v>
@@ -7503,7 +7532,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C53">
         <v>37</v>
@@ -7522,7 +7551,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C54">
         <v>40</v>
@@ -7541,7 +7570,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C55" s="1">
         <f>SUM(C52:C54)</f>
@@ -7562,10 +7591,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C56">
         <v>39</v>
@@ -7584,7 +7613,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C57">
         <v>40</v>
@@ -7603,7 +7632,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C58">
         <v>42</v>
@@ -7622,7 +7651,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C59" s="1">
         <f>SUM(C56:C58)</f>
@@ -7643,35 +7672,35 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D62" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="E62" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G62" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C63">
         <v>113</v>
@@ -7686,16 +7715,16 @@
         <v>0.83703703703703702</v>
       </c>
       <c r="G63">
-        <f>STDEV(F52:F54)*E63</f>
-        <v>8.5508271692906934</v>
+        <f>STDEV(F52:F54)*E63/SQRT(3)</f>
+        <v>4.9368223679839476</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>121</v>
@@ -7710,8 +7739,8 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="G64">
-        <f>STDEV(F56:F58)*E64</f>
-        <v>3.4674608373237477</v>
+        <f>STDEV(F56:F58)*E64/SQRT(3)</f>
+        <v>2.001939447833351</v>
       </c>
     </row>
   </sheetData>
